--- a/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-medicationdispense.xlsx
@@ -917,7 +917,7 @@
 投与を受ける患者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
